--- a/medicine/Psychotrope/Berliner_Pilsner/Berliner_Pilsner.xlsx
+++ b/medicine/Psychotrope/Berliner_Pilsner/Berliner_Pilsner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Berliner Pilsner est une marque de bière de Radeberger Gruppe faite dans la Berliner-Kindl-Schultheiss-Brauerei.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Berliner Pilsner est créée en 1902 par Gabriel et Richter. 
 En 1969, la Berliner-Kindl-Schultheiss-Brauerei devient la principale brasserie d'Allemagne de l'Est. La Berliner Pilsner est la bière traditionnelle la plus répandue dans le pays. Elle est produite aussi pour l'exportation en Bulgarie, au Royaume et aux États-Unis.
